--- a/Crawling/data.xlsx
+++ b/Crawling/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I182"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,32 +476,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$1,329.49</t>
+          <t>$1,396.48</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.17%</t>
+          <t>0.18%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$177,170</t>
+          <t>$134,617</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$167,675</t>
+          <t>$187,751</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$278,940,896.90</t>
+          <t>$414,572,223.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24.92%</t>
+          <t>27.66%</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -519,32 +519,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$34,664.79</t>
+          <t>$33,042.02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.12%</t>
+          <t>0.13%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$154,707</t>
+          <t>$158,727</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$157,075</t>
+          <t>$213,094</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$199,381,249.08</t>
+          <t>$268,880,641.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17.81%</t>
+          <t>17.94%</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -562,32 +562,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$1,331.64</t>
+          <t>$1,396.18</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.66%</t>
+          <t>0.59%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$76,239</t>
+          <t>$54,472</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$214,997</t>
+          <t>$196,393</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$117,889,840.93</t>
+          <t>$141,125,771.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10.53%</t>
+          <t>9.42%</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -600,37 +600,37 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BTC/PAX</t>
+          <t>LINK/ETH</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$34,756.85</t>
+          <t>$24.32</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.56%</t>
+          <t>0.72%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$7,788</t>
+          <t>$5,638</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$7,967</t>
+          <t>$1,141</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$39,029,241.70</t>
+          <t>$46,336,094.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.49%</t>
+          <t>3.09%</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -643,37 +643,37 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>XRP/USDT</t>
+          <t>LINK/BTC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$0.30</t>
+          <t>$24.28</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.91%</t>
+          <t>0.37%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$10,674</t>
+          <t>$7,265</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$7,291</t>
+          <t>$7,901</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$35,400,834.65</t>
+          <t>$46,082,118.62</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.16%</t>
+          <t>3.07%</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -686,37 +686,37 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BTC/USDC</t>
+          <t>LTC/ETH</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$34,527.97</t>
+          <t>$141.31</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.29%</t>
+          <t>0.98%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$9,934</t>
+          <t>$3,142</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$71,328</t>
+          <t>$4,502</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$34,566,674.71</t>
+          <t>$37,753,571.97</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.09%</t>
+          <t>2.52%</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -729,37 +729,37 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LTC/ETH</t>
+          <t>XRP/USDT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$145.79</t>
+          <t>$0.27</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.19%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$3,545</t>
+          <t>$15,997</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$2,242</t>
+          <t>$14,535</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$26,090,339.76</t>
+          <t>$36,463,241.96</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.33%</t>
+          <t>2.43%</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -772,37 +772,37 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LINK/BTC</t>
+          <t>LINK/USDT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$21.61</t>
+          <t>$24.30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.37%</t>
+          <t>0.39%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$2,856</t>
+          <t>$17,765</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$13,272</t>
+          <t>$11,583</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$26,007,115.81</t>
+          <t>$35,627,564.89</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.32%</t>
+          <t>2.38%</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -815,37 +815,37 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LINK/ETH</t>
+          <t>LTC/USDT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$21.61</t>
+          <t>$141.09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>0.31%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$348</t>
+          <t>$33,379</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$901</t>
+          <t>$76,946</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$25,815,711.25</t>
+          <t>$33,304,699.48</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.31%</t>
+          <t>2.22%</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -858,37 +858,37 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LTC/USDT</t>
+          <t>BTC/PAX</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$145.38</t>
+          <t>$33,107.63</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.56%</t>
+          <t>0.54%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$24,096</t>
+          <t>$6,903</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$35,357</t>
+          <t>$6,650</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$23,934,702.99</t>
+          <t>$33,197,942.98</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.14%</t>
+          <t>2.22%</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -901,37 +901,37 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LINK/USDT</t>
+          <t>LTC/BTC</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$21.60</t>
+          <t>$141.08</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.71%</t>
+          <t>0.63%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>$8,624</t>
+          <t>$3,917</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>$13,220</t>
+          <t>$13,588</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>$22,726,411.39</t>
+          <t>$31,532,225.53</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.03%</t>
+          <t>2.10%</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -944,37 +944,37 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LTC/BTC</t>
+          <t>UNI/USDT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$145.68</t>
+          <t>$11.57</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.26%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>$2,511</t>
+          <t>$18,557</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>$11,512</t>
+          <t>$17,672</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>$20,327,277.38</t>
+          <t>$28,586,468.50</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.82%</t>
+          <t>1.91%</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -987,37 +987,37 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DOT/USDT</t>
+          <t>BTC/USDC</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$17.44</t>
+          <t>$33,074.23</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>0.57%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>$47,729</t>
+          <t>$6,030</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>$55,720</t>
+          <t>$6,267</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>$14,946,542.88</t>
+          <t>$27,608,628.32</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.34%</t>
+          <t>1.84%</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1030,37 +1030,37 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KSM/USDT</t>
+          <t>DOT/USDT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$104.33</t>
+          <t>$17.97</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.34%</t>
+          <t>0.11%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>$9,013</t>
+          <t>$28,416</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>$8,067</t>
+          <t>$70,813</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>$12,054,891.34</t>
+          <t>$18,031,512.80</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.08%</t>
+          <t>1.20%</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$0.30</t>
+          <t>$0.27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.43%</t>
+          <t>1.02%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>$6,118</t>
+          <t>$7,224</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>$2,901</t>
+          <t>$2,821</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>$11,999,204.92</t>
+          <t>$16,320,708.28</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.07%</t>
+          <t>1.09%</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1116,37 +1116,37 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SUSHI/USDT</t>
+          <t>KSM/USDT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$6.88</t>
+          <t>$101.42</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>1.16%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>$2,314</t>
+          <t>$7,169</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>$4,671</t>
+          <t>$10,283</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>$11,042,472.51</t>
+          <t>$15,239,859.44</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.99%</t>
+          <t>1.02%</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1164,32 +1164,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$0.30</t>
+          <t>$0.27</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.48%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>$14,191</t>
+          <t>$7,666</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>$8,241</t>
+          <t>$7,171</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>$9,753,498.48</t>
+          <t>$12,565,927.34</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.87%</t>
+          <t>0.84%</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1202,37 +1202,37 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EOS/ETH</t>
+          <t>EOS/USDT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$2.75</t>
+          <t>$2.70</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.77%</t>
+          <t>0.75%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>$6,369</t>
+          <t>$9,871</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>$3,175</t>
+          <t>$12,409</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>$9,288,075.50</t>
+          <t>$12,223,454.40</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.83%</t>
+          <t>0.82%</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1245,32 +1245,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EOS/USDT</t>
+          <t>EOS/ETH</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$2.74</t>
+          <t>$2.70</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>0.72%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>$23,783</t>
+          <t>$6,563</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>$25,814</t>
+          <t>$4,024</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>$8,914,294.79</t>
+          <t>$12,042,956.06</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1288,37 +1288,37 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>USDC/USDT</t>
+          <t>SUSHI/USDT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$1.00</t>
+          <t>$8.18</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.02%</t>
+          <t>0.35%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>$139,580</t>
+          <t>$1,782</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>$144,943</t>
+          <t>$3,043</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>$8,147,218.93</t>
+          <t>$11,358,991.70</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.73%</t>
+          <t>0.76%</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1336,27 +1336,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$2.74</t>
+          <t>$2.70</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>0.71%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>$9,877</t>
+          <t>$11,020</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>$12,321</t>
+          <t>$11,440</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>$8,085,013.86</t>
+          <t>$10,862,770.90</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1374,32 +1374,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>XLM/USDT</t>
+          <t>BNB/USDT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$0.29</t>
+          <t>$41.82</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.23%</t>
+          <t>1.33%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>$24,679</t>
+          <t>$1,876</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>$13,753</t>
+          <t>$4,238</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>$7,534,265.04</t>
+          <t>$10,065,734.87</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1417,37 +1417,37 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BNB/USDT</t>
+          <t>BNB/BTC</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$41.62</t>
+          <t>$41.85</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2.47%</t>
+          <t>0.71%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>$703</t>
+          <t>$3,008</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>$1,741</t>
+          <t>$9,304</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>$7,239,615.56</t>
+          <t>$9,399,819.10</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.65%</t>
+          <t>0.63%</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1460,37 +1460,37 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>UNI/USDT</t>
+          <t>YFI/USDT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$8.47</t>
+          <t>$31,529.94</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.49%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>$13,213</t>
+          <t>$3,445</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>$17,442</t>
+          <t>$3,125</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>$7,041,005.53</t>
+          <t>$7,999,986.67</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.63%</t>
+          <t>0.53%</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1503,37 +1503,37 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BNB/BTC</t>
+          <t>COMP/USDT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$41.64</t>
+          <t>$239.02</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.89%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>$8,407</t>
+          <t>$6,759</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>$11,090</t>
+          <t>$5,403</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>$7,035,994.07</t>
+          <t>$7,731,352.82</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.63%</t>
+          <t>0.52%</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1546,80 +1546,80 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HEX/BTC</t>
+          <t>NEO/USDT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$0.01</t>
+          <t>$24.46</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>0.78%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>$842</t>
+          <t>$12,212</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>$41</t>
+          <t>$7,799</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>$5,615,514.93</t>
+          <t>$6,970,470.46</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.50%</t>
+          <t>0.46%</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NEO/USDT</t>
+          <t>HT/USDT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$25.26</t>
+          <t>$5.74</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.84%</t>
+          <t>0.35%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>$8,342</t>
+          <t>$8,524</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>$12,436</t>
+          <t>$6,059</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>$5,562,207.41</t>
+          <t>$6,619,656.28</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.50%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1632,37 +1632,37 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PAX/USDT</t>
+          <t>BAL/USDT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$1.00</t>
+          <t>$22.55</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.91%</t>
+          <t>0.45%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>$44,639</t>
+          <t>$5,671</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>$54,643</t>
+          <t>$5,511</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>$4,960,015.01</t>
+          <t>$5,840,142.36</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>0.39%</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1675,37 +1675,37 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>YFI/USDT</t>
+          <t>UMA/USDT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$32,293.47</t>
+          <t>$11.38</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.17%</t>
+          <t>1.52%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>$2,971</t>
+          <t>$1,142</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>$2,705</t>
+          <t>$995</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>$4,909,895.79</t>
+          <t>$5,681,557.99</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>0.38%</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1723,32 +1723,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$6.41</t>
+          <t>$5.91</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.36%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>$9,788</t>
+          <t>$8,645</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>$10,837</t>
+          <t>$11,660</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>$4,742,451.51</t>
+          <t>$5,677,744.21</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>0.38%</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1761,37 +1761,37 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BSV/USDT</t>
+          <t>POLS/USDT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$194.83</t>
+          <t>$1.33</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>1.64%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>$1,823</t>
+          <t>$46</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>$183</t>
+          <t>$172</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>$4,720,811.82</t>
+          <t>$4,794,139.19</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>0.32%</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -1804,37 +1804,37 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>COMP/USDT</t>
+          <t>BSV/USDT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$204.52</t>
+          <t>$174.34</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.14%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>$4,547</t>
+          <t>$6,056</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>$6,525</t>
+          <t>$2,308</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>$4,433,920.44</t>
+          <t>$4,584,774.10</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.40%</t>
+          <t>0.31%</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -1847,123 +1847,123 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>WAVES/BTC</t>
+          <t xml:space="preserve"> RSR/USDT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$7.02</t>
+          <t>$0.04</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.56%</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>$3,793</t>
+          <t>$3,870</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>$4,169</t>
+          <t>$2,033</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>$4,278,393.89</t>
+          <t>$4,584,026.53</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>0.31%</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>NEO/BTC</t>
+          <t>HEX/BTC</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$25.25</t>
+          <t>$0.01</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.68%</t>
+          <t>5.34%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>$4,646</t>
+          <t>$668</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>$4,978</t>
+          <t>$563</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>$4,267,351.81</t>
+          <t>$4,483,240.33</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>0.30%</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HT/USDT</t>
+          <t>WAVES/BTC</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$5.73</t>
+          <t>$7.06</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.54%</t>
+          <t>0.55%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>$10,367</t>
+          <t>$4,287</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>$9,461</t>
+          <t>$1,989</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>$4,171,477.22</t>
+          <t>$4,456,834.14</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.37%</t>
+          <t>0.30%</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -1976,37 +1976,37 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ZEC/USDT</t>
+          <t>TUSD/USDT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$95.57</t>
+          <t>$1.00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>$9,052</t>
+          <t>$180,165</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>$7,335</t>
+          <t>$172,249</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>$4,134,798.19</t>
+          <t>$4,320,554.00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.37%</t>
+          <t>0.29%</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -2019,41 +2019,41 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>POLS/USDT</t>
+          <t>XLM/USDT</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>$1.39</t>
+          <t>$0.27</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5.05%</t>
+          <t>0.23%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$19,194</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$7,628</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>$3,947,526.41</t>
+          <t>$4,297,126.66</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>0.29%</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -2062,37 +2062,37 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>WAVES/ETH</t>
+          <t>PAX/USDT</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$7.05</t>
+          <t>$1.00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.72%</t>
+          <t>0.93%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>$4,667</t>
+          <t>$27,873</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>$4,637</t>
+          <t>$55,598</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>$3,917,789.81</t>
+          <t>$4,143,841.36</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>0.28%</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -2105,37 +2105,37 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TUSD/USDT</t>
+          <t>SNX/USDT</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$1.00</t>
+          <t>$17.15</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1.02%</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>$104,683</t>
+          <t>$4,747</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>$203,516</t>
+          <t>$4,041</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>$3,908,438.27</t>
+          <t>$4,016,934.31</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>0.27%</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2148,37 +2148,37 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>UMA/USDT</t>
+          <t>ZEC/USDT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>$11.16</t>
+          <t>$91.79</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.33%</t>
+          <t>0.28%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>$867</t>
+          <t>$8,758</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>$1,609</t>
+          <t>$11,125</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>$3,606,207.87</t>
+          <t>$3,910,547.77</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.32%</t>
+          <t>0.26%</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -2191,123 +2191,123 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ABBC/BTC</t>
+          <t>LON/USDT</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>$0.21</t>
+          <t>$4.49</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2.76%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>$195</t>
+          <t>$2,463</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>$20</t>
+          <t>$1,247</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>$3,538,812.48</t>
+          <t>$3,856,672.55</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.32%</t>
+          <t>0.26%</t>
         </is>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BAL/USDT</t>
+          <t>ABBC/BTC</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>$21.54</t>
+          <t>$0.20</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>5.59%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>$4,453</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>$7,090</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>$3,455,910.56</t>
+          <t>$3,849,812.55</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.31%</t>
+          <t>0.26%</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>XLM/ETH</t>
+          <t>NEO/BTC</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$0.29</t>
+          <t>$24.44</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.72%</t>
+          <t>2.38%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>$5,757</t>
+          <t>$12,703</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>$3,192</t>
+          <t>$487</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>$2,905,010.06</t>
+          <t>$3,327,442.72</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.26%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -2320,37 +2320,37 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCH/USDT</t>
+          <t>WAVES/ETH</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$486.26</t>
+          <t>$7.10</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.86%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>$5,875</t>
+          <t>$3,315</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>$12,859</t>
+          <t>$2,886</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>$2,833,945.68</t>
+          <t>$3,180,731.05</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>0.21%</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -2363,37 +2363,37 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>LOOM/BTC</t>
+          <t>ZEC/ETH</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$0.06</t>
+          <t>$92.17</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3.11%</t>
+          <t>1.35%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>$42</t>
+          <t>$49,741</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>$55</t>
+          <t>$24,807</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>$2,785,951.56</t>
+          <t>$3,126,927.38</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>0.21%</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -2406,80 +2406,80 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ZEC/BTC</t>
+          <t>THETA/USDT</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$95.71</t>
+          <t>$1.94</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.87%</t>
+          <t>5.72%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>$17,736</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>$9,871</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>$2,520,050.91</t>
+          <t>$2,909,360.16</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.23%</t>
+          <t>0.19%</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>WNXM/USDT</t>
+          <t>XLM/ETH</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$39.25</t>
+          <t>$0.27</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.99%</t>
+          <t>2.06%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>$7,621</t>
+          <t>$3,067</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>$4,787</t>
+          <t>$1,111</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>$2,479,160.65</t>
+          <t>$2,895,486.14</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>0.19%</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -2492,37 +2492,37 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>XLM/BTC</t>
+          <t>ZEC/BTC</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$0.29</t>
+          <t>$91.73</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.72%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>$10,205</t>
+          <t>$720</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>$1,820</t>
+          <t>$30,136</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>$2,421,700.24</t>
+          <t>$2,735,775.30</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>0.18%</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -2535,37 +2535,37 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SNX/USDT</t>
+          <t>FIL/USDT</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$14.91</t>
+          <t>$22.73</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1.35%</t>
+          <t>1.74%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>$1,147</t>
+          <t>$2,352</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>$4,016</t>
+          <t>$388</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>$2,405,677.68</t>
+          <t>$2,633,610.24</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.21%</t>
+          <t>0.18%</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2578,37 +2578,37 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ZEC/ETH</t>
+          <t>LOOM/BTC</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$95.93</t>
+          <t>$0.07</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.48%</t>
+          <t>2.46%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>$50,171</t>
+          <t>$79</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>$16,231</t>
+          <t>$146</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>$2,396,488.97</t>
+          <t>$2,592,373.60</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.21%</t>
+          <t>0.17%</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -2621,84 +2621,84 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>THETA/USDT</t>
+          <t>WNXM/USDT</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$2.02</t>
+          <t>$49.52</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.35%</t>
+          <t>0.78%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>$1,048</t>
+          <t>$6,427</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>$6</t>
+          <t>$5,042</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>$2,263,726.24</t>
+          <t>$2,329,545.99</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.20%</t>
+          <t>0.16%</t>
         </is>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>QTUM/USDT</t>
+          <t>1INCH/USDT</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$3.11</t>
+          <t>$2.43</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.36%</t>
+          <t>8.4%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>$7,559</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>$11,418</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>$2,174,292.97</t>
+          <t>$2,151,548.44</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>0.14%</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -2707,37 +2707,37 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>FIL/USDT</t>
+          <t>QTUM/USDT</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$22.37</t>
+          <t>$3.44</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.36%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>$671</t>
+          <t>$10,199</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>$570</t>
+          <t>$8,905</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>$2,035,784.32</t>
+          <t>$2,143,827.60</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>0.14%</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2750,37 +2750,37 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>VET/ETH</t>
+          <t>GUSD/USDT</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$0.03</t>
+          <t>$1.00</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>$58</t>
+          <t>$4,557</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>$2,538</t>
+          <t>$4,929</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>$1,716,185.57</t>
+          <t>$2,088,577.32</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>0.14%</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -2793,37 +2793,37 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCH/BTC</t>
+          <t>WOO/USDT</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$487.20</t>
+          <t>$0.03</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.72%</t>
+          <t>3.95%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>$12,058</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>$6,921</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>$1,652,291.20</t>
+          <t>$2,083,707.91</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>0.14%</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -2836,37 +2836,37 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>RSR/USDT</t>
+          <t>BCH/USDT</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>$0.04</t>
+          <t>$445.31</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.31%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>$1,323</t>
+          <t>$7,541</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>$2,248</t>
+          <t>$7,194</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>$1,649,474.78</t>
+          <t>$2,083,259.64</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>0.14%</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -2879,32 +2879,32 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DASH/USDT</t>
+          <t xml:space="preserve"> XLM/BTC</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$116.31</t>
+          <t>$0.27</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.83%</t>
+          <t>0.97%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>$14,824</t>
+          <t>$9,342</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>$8,576</t>
+          <t>$6,063</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>$1,616,917.87</t>
+          <t>$2,078,520.26</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2916,47 +2916,47 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>WOO/USDT</t>
+          <t>NULS/USDT</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>$0.03</t>
+          <t>$0.36</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.16%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>$3,972</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>$3,127</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>$1,556,384.57</t>
+          <t>$1,922,464.17</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.14%</t>
+          <t>0.13%</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -2965,32 +2965,32 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>OMG/BTC</t>
+          <t>NEXO/USDT</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$3.71</t>
+          <t>$0.71</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.28%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>$3,007</t>
+          <t>$565</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>$536</t>
+          <t>$4,301</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>$1,435,923.53</t>
+          <t>$1,910,522.57</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3002,43 +3002,43 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>GUSD/USDT</t>
+          <t>LOOM/ETH</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>$1.00</t>
+          <t>$0.07</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.89%</t>
+          <t>0.78%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>$8,927</t>
+          <t>$1,858</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>$9,678</t>
+          <t>$2,349</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>$1,326,917.19</t>
+          <t>$1,701,875.63</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.12%</t>
+          <t>0.11%</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -3051,32 +3051,32 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NULS/USDT</t>
+          <t>ERSDL/ETH</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>$0.29</t>
+          <t>$0.02</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1.42%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>$501</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>$6,023</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>$1,282,281.02</t>
+          <t>$1,677,692.43</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3085,10 +3085,10 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -3099,27 +3099,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>$25.34</t>
+          <t>$24.73</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2.08%</t>
+          <t>2.79%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>$5,026</t>
+          <t>$9,012</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>$1,000</t>
+          <t>$444</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>$1,262,617.81</t>
+          <t>$1,616,014.35</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3137,80 +3137,80 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NEXO/USDT</t>
+          <t>SG/USDT</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$0.72</t>
+          <t>$4.89</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2.28%</t>
+          <t>0.31%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>$549</t>
+          <t>$2,101</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>$738</t>
+          <t>$156</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>$1,189,372.06</t>
+          <t>$1,541,604.74</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>0.10%</t>
         </is>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>LOOM/ETH</t>
+          <t>DIA/USDT</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$0.05</t>
+          <t>$2.05</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1.02%</t>
+          <t>0.99%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>$995</t>
+          <t>$1,745</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>$1,158</t>
+          <t>$1,526</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>$1,174,320.91</t>
+          <t>$1,359,367.87</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>0.09%</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -3223,37 +3223,37 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>LON/USDT</t>
+          <t>TRX/BTC</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>$2.20</t>
+          <t>$0.03</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.38%</t>
+          <t>1.28%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>$1,368</t>
+          <t>$386</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>$789</t>
+          <t>$7,101</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>$1,160,731.19</t>
+          <t>$1,308,172.84</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>0.09%</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -3266,41 +3266,41 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TRX/BTC</t>
+          <t>BCH/BTC</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>$0.03</t>
+          <t>$445.20</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>5.56%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$143,079</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$10,196</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>$1,060,958.66</t>
+          <t>$1,193,058.37</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>0.08%</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -3309,37 +3309,37 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1INCH/USDT</t>
+          <t>JST/USDT</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$1.77</t>
+          <t>$0.03</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4.54%</t>
+          <t>1.54%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$537</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$345</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>$1,040,235.45</t>
+          <t>$1,192,870.29</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>0.08%</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -3352,32 +3352,32 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>QTUM/ETH</t>
+          <t>VET/ETH</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$3.13</t>
+          <t>$0.03</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.83%</t>
+          <t>0.72%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>$5,334</t>
+          <t>$681</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>$9,143</t>
+          <t>$1,993</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>$942,882.93</t>
+          <t>$1,151,047.23</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3395,32 +3395,32 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>VET/BTC</t>
+          <t>OM/USDT</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$0.03</t>
+          <t>$0.12</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2.08%</t>
+          <t>1.75%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>$43</t>
+          <t>$187</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>$501</t>
+          <t>$202</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>$784,955.95</t>
+          <t>$1,110,758.99</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3438,32 +3438,32 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>JST/USDT</t>
+          <t>QTUM/ETH</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$0.03</t>
+          <t>$3.45</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>0.99%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>$490</t>
+          <t>$11,282</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>$192</t>
+          <t>$2,704</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>$735,961.12</t>
+          <t>$1,056,288.92</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3486,32 +3486,32 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>$3.13</t>
+          <t>$3.44</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3.26%</t>
+          <t>4.63%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>$2,499</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>$6,713</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>$720,020.27</t>
+          <t>$1,047,582.33</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>0.07%</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -3524,37 +3524,37 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>TRX/ETH</t>
+          <t>ONT/BTC</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$0.03</t>
+          <t>$0.60</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2.19%</t>
+          <t>1.26%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>$65</t>
+          <t>$5,260</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>$722</t>
+          <t>$2,171</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>$695,304.32</t>
+          <t>$1,041,987.10</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>0.07%</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -3567,32 +3567,32 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>DIA/USDT</t>
+          <t>$KING/USDT</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$1.83</t>
+          <t>$0.14</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1.12%</t>
+          <t>20.77%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>$11,011</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>$1,953</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>$692,794.64</t>
+          <t>$972,875.08</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3601,41 +3601,41 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CRO/USDT</t>
+          <t>GRT/USDT</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$0.08</t>
+          <t>$0.55</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1.83%</t>
+          <t>1.02%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>$531</t>
+          <t>$1,311</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>$860</t>
+          <t>$522</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>$674,685.10</t>
+          <t>$943,989.04</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3653,32 +3653,32 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>AR/USDT</t>
+          <t>TRX/ETH</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$4.85</t>
+          <t>$0.03</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1.06%</t>
+          <t>2.09%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>$9,595</t>
+          <t>$429</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>$8,508</t>
+          <t>$1,523</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>$672,919.43</t>
+          <t>$941,739.95</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3690,38 +3690,38 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DASH/ETH</t>
+          <t>AR/USDT</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$116.63</t>
+          <t>$5.61</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.79%</t>
+          <t>0.53%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>$1,126</t>
+          <t>$2,953</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>$901</t>
+          <t>$2,883</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>$654,124.69</t>
+          <t>$936,431.87</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3733,38 +3733,38 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>OM/USDT</t>
+          <t>DASH/USDT</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>$0.10</t>
+          <t>$109.19</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1.77%</t>
+          <t>0.72%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>$264</t>
+          <t>$4,210</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>$164</t>
+          <t>$12,087</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>$653,147.16</t>
+          <t>$917,929.99</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3782,32 +3782,32 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ZRX/ETH</t>
+          <t>REP/BTC</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$0.53</t>
+          <t>$20.12</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1.25%</t>
+          <t>0.82%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>$540</t>
+          <t>$4,599</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>$901</t>
+          <t>$8,485</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>$626,655.44</t>
+          <t>$857,939.02</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3825,80 +3825,80 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>GRT/USDT</t>
+          <t>SG/BTC</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$0.53</t>
+          <t>$5.26</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1.62%</t>
+          <t>9.0%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>$603</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>$917</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>$569,248.19</t>
+          <t>$855,280.08</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>0.06%</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>OMG/ETH</t>
+          <t>BAT/USDT</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$3.72</t>
+          <t>$0.32</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.36%</t>
+          <t>0.57%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>$632</t>
+          <t>$1,316</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>$10,322</t>
+          <t>$7,130</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>$561,496.16</t>
+          <t>$855,488.06</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>0.06%</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -3911,80 +3911,80 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>APL/BTC</t>
+          <t>ZRX/ETH</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$0.55</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>4.33%</t>
+          <t>1.28%</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>$19,247</t>
+          <t>$78</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>$19,198</t>
+          <t>$1,168</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>$486,274.64</t>
+          <t>$744,518.43</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>0.05%</t>
         </is>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ZRX/BTC</t>
+          <t>AAVE/USDT</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>$0.54</t>
+          <t>$253.57</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1.09%</t>
+          <t>1.15%</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>$442</t>
+          <t>$8,055</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>$10,675</t>
+          <t>$3,800</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>$460,816.36</t>
+          <t>$736,028.73</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>0.05%</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -3997,17 +3997,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BMX/USDT</t>
+          <t>$KING/BTC</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>$0.03</t>
+          <t>$0.14</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>4.45%</t>
+          <t>17.6%</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4022,55 +4022,55 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>$415,143.66</t>
+          <t>$730,242.61</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>0.05%</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>AAVE/USDT</t>
+          <t>BAT/BTC</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$189.78</t>
+          <t>$0.32</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0.62%</t>
+          <t>3.04%</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>$3,123</t>
+          <t>$625</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>$5,694</t>
+          <t>$7,104</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>$386,369.43</t>
+          <t>$711,080.68</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>0.05%</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -4083,41 +4083,41 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ETC/ETH</t>
+          <t>DGB/BTC</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$7.83</t>
+          <t>$0.03</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2.06%</t>
+          <t>15.48%</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>$110</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>$4,252</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>$364,056.08</t>
+          <t>$710,818.96</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>0.05%</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -4126,37 +4126,37 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ETC/BTC</t>
+          <t>IOST/ETH</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$7.78</t>
+          <t>$0.02</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2.21%</t>
+          <t>1.76%</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>$109</t>
+          <t>$306</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>$97</t>
+          <t>$553</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>$339,524.22</t>
+          <t>$696,145.88</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>0.05%</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -4169,37 +4169,37 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>WAVES/USDT</t>
+          <t>ONT/ETH</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$6.99</t>
+          <t>$0.60</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0.74%</t>
+          <t>1.39%</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>$3,278</t>
+          <t>$2,049</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>$1,408</t>
+          <t>$958</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>$322,706.22</t>
+          <t>$693,345.44</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>0.05%</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -4212,166 +4212,166 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>AKT/USDT</t>
+          <t>OMG/BTC</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$1.78</t>
+          <t>$3.63</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>0.65%</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>$3,200</t>
+          <t>$1,196</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>$3,468</t>
+          <t>$9,968</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>$301,473.56</t>
+          <t>$673,237.33</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>0.04%</t>
         </is>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BUP/BTC</t>
+          <t>BAT/ETH</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$0.53</t>
+          <t>$0.31</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.12%</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>$528</t>
+          <t>$471</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>$165</t>
+          <t>$1,490</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>$274,546.68</t>
+          <t>$658,220.32</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>0.04%</t>
         </is>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>REP/BTC</t>
+          <t>TSL/BTC</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$21.07</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0.83%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>$2,522</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>$8,491</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>$246,504.91</t>
+          <t>$661,408.81</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>0.04%</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>TRX/USDT</t>
+          <t>OMG/ETH</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$0.03</t>
+          <t>$3.60</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.16%</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>$61</t>
+          <t>$1,321</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>$5,357</t>
+          <t>$3,105</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>$236,938.76</t>
+          <t>$609,630.59</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>0.04%</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -4384,80 +4384,80 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>DASH/BTC</t>
+          <t>HMR/BTC</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$116.51</t>
+          <t>$0.14</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0.83%</t>
+          <t>12.34%</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>$1,101</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>$14,824</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>$230,357.91</t>
+          <t>$598,416.94</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>0.04%</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BAT/BTC</t>
+          <t>ZRX/BTC</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$0.27</t>
+          <t>$0.55</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0.64%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>$215</t>
+          <t>$180</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>$10,147</t>
+          <t>$7,095</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>$204,041.56</t>
+          <t>$587,497.73</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>0.04%</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -4470,60 +4470,60 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>APL/USDT</t>
+          <t>VET/BTC</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$0.03</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>5.21%</t>
+          <t>3.16%</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$100</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$36</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>$200,495.01</t>
+          <t>$578,832.24</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>0.04%</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BMX/BTC</t>
+          <t>IOST/BTC</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$0.03</t>
+          <t>$0.02</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>7.23%</t>
+          <t>5.56%</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4538,12 +4538,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>$192,672.82</t>
+          <t>$500,494.29</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>0.03%</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -4556,80 +4556,80 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>QRX/BTC</t>
+          <t>REP/ETH</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$0.02</t>
+          <t>$20.18</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>3.23%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>$428</t>
+          <t>$2,559</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>$158</t>
+          <t>$1,779</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>$184,156.90</t>
+          <t>$495,177.60</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>0.03%</t>
         </is>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BAT/ETH</t>
+          <t>BMX/USDT</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$0.27</t>
+          <t>$0.03</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1.58%</t>
+          <t>1.96%</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>$4</t>
+          <t>$483</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>$1,182</t>
+          <t>$386</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>$183,684.90</t>
+          <t>$476,480.18</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>0.03%</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -4642,37 +4642,37 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CRO/BTC</t>
+          <t>CRO/USDT</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$0.08</t>
+          <t>$0.07</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2.11%</t>
+          <t>1.89%</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>$655</t>
+          <t>$302</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>$274</t>
+          <t>$949</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>$178,811.72</t>
+          <t>$467,930.05</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>0.03%</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -4685,80 +4685,80 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>QRX/USDT</t>
+          <t>MKR/ETH</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$0.02</t>
+          <t>$1,435.94</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>1.99%</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>$19</t>
+          <t>$752</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>$46</t>
+          <t>$88</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>$178,445.18</t>
+          <t>$462,812.94</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>0.03%</t>
         </is>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BTT/USDT</t>
+          <t>MKR/BTC</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$1,440.72</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1.91%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>$168</t>
+          <t>$904</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>$144</t>
+          <t>$147</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>$172,646.34</t>
+          <t>$457,067.10</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>0.03%</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -4771,32 +4771,32 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BAT/USDT</t>
+          <t>ETC/ETH</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$0.27</t>
+          <t>$7.71</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0.62%</t>
+          <t>0.85%</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>$225</t>
+          <t>$269</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>$7,308</t>
+          <t>$2,425</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>$171,086.73</t>
+          <t>$430,866.41</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4814,32 +4814,32 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BTT/BTC</t>
+          <t>HMR/USDT</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$0.14</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>6.36%</t>
+          <t>13.59%</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>$610</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>$1,350</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>$167,381.31</t>
+          <t>$391,981.69</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4851,38 +4851,38 @@
         <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MATH/USDT</t>
+          <t>APL/ETH</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>$0.59</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>3.23%</t>
+          <t>1.47%</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>$474</t>
+          <t>$3</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>$65</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>$136,875.23</t>
+          <t>$387,737.82</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4894,38 +4894,38 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>VET/USDT</t>
+          <t>ALGO/USDT</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>$0.03</t>
+          <t>$0.60</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>6.88%</t>
+          <t>1.02%</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$2,952</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$683</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>$136,564.79</t>
+          <t>$382,552.65</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4934,41 +4934,41 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>VTHO/USDT</t>
+          <t>ALGO/BTC</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$0.60</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>0.87%</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>$694</t>
+          <t>$2,461</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>$1,503</t>
+          <t>$860</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>$116,484.64</t>
+          <t>$382,070.23</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4986,32 +4986,32 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ERSDL/ETH</t>
+          <t>VTHO/USDT</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>$0.01</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.21%</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>$853</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>$804</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>$110,962.42</t>
+          <t>$369,283.53</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5020,41 +5020,41 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CLC/USDT</t>
+          <t>ETC/BTC</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>$0.03</t>
+          <t>$7.70</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1.17%</t>
+          <t>1.69%</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>$1,852</t>
+          <t>$56</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>$861</t>
+          <t>$305</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>$108,991.66</t>
+          <t>$310,011.12</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5066,38 +5066,38 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BSV/BTC</t>
+          <t>DASH/ETH</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>$195.09</t>
+          <t>$109.28</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>1.41%</t>
+          <t>2.01%</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>$80,774</t>
+          <t>$9,689</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>$112,427</t>
+          <t>$30,931</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>$99,214.33</t>
+          <t>$282,397.92</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5115,32 +5115,32 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BUY/USDT</t>
+          <t>APL/BTC</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>$0.22</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1.01%</t>
+          <t>6.23%</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>$397</t>
+          <t>$18,978</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>$31</t>
+          <t>$59,634</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>$97,500.12</t>
+          <t>$272,843.76</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -5149,41 +5149,41 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>REV/USDT</t>
+          <t>WAVES/USDT</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>$0.01</t>
+          <t>$7.07</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0.85%</t>
+          <t>2.03%</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>$122</t>
+          <t>$4,120</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>$302</t>
+          <t>$1,688</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>$92,443.17</t>
+          <t>$265,951.02</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5195,38 +5195,38 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>TMT/BTC</t>
+          <t>ELT/USDT</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>$0.04</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>3.23%</t>
+          <t>32.09%</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>$5</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>$76,103.96</t>
+          <t>$261,745.59</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5235,41 +5235,41 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CORX/BTC</t>
+          <t>TRX/USDT</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$0.03</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>5.14%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>$68</t>
+          <t>$384</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>$441</t>
+          <t>$3,738</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>$76,058.71</t>
+          <t>$233,812.35</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5278,41 +5278,41 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SRK/ETH</t>
+          <t>BMX/BTC</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$0.03</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0.49%</t>
+          <t>7.78%</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>$1,166</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>$652</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>$73,129.11</t>
+          <t>$212,211.18</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5321,41 +5321,41 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>NDAU/USDT</t>
+          <t>CLC/USDT</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>$15.87</t>
+          <t>$0.03</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>0.12%</t>
+          <t>2.75%</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>$9,447</t>
+          <t>$300</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$116</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>$71,420.78</t>
+          <t>$197,698.03</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5373,32 +5373,32 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>EWT/BTC</t>
+          <t>HOT/USDT</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>$8.69</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>0.87%</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>$3</t>
+          <t>$82</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>$593</t>
+          <t>$107</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>$70,755.47</t>
+          <t>$196,662.51</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5410,23 +5410,23 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>XDB/USDT</t>
+          <t>EWT/BTC</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>$0.02</t>
+          <t>$8.55</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>8.15%</t>
+          <t>4.55%</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>$64,977.42</t>
+          <t>$195,943.67</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5450,41 +5450,41 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ATOM/USDT</t>
+          <t>DASH/BTC</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>$8.56</t>
+          <t>$109.14</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0.72%</t>
+          <t>2.81%</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>$2,813</t>
+          <t>$8,936</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>$5,917</t>
+          <t>$22,630</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>$58,267.89</t>
+          <t>$195,444.44</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5502,32 +5502,32 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MATIC/BTC</t>
+          <t>QRX/BTC</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>$0.04</t>
+          <t>$0.02</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>4.85%</t>
+          <t>0.73%</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$755</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$134</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>$40,372.28</t>
+          <t>$187,391.20</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5539,38 +5539,38 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ETC/USDT</t>
+          <t>APL/USDT</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>$7.81</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>0.62%</t>
+          <t>2.38%</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>$1,962</t>
+          <t>$409</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>$364</t>
+          <t>$1,021</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>$40,355.57</t>
+          <t>$186,727.71</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5582,38 +5582,38 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ULT/USDT</t>
+          <t>QRX/USDT</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>$0.01</t>
+          <t>$0.02</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>7.94%</t>
+          <t>3.74%</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$145</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$126</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>$34,178.79</t>
+          <t>$176,608.57</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -5622,41 +5622,41 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SHAKE/ETH</t>
+          <t>BMX/ETH</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>$333.59</t>
+          <t>$0.03</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>1.98%</t>
+          <t>34.85%</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>$17</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>$2</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>$32,883.42</t>
+          <t>$165,601.11</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5665,41 +5665,41 @@
         </is>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SHR/BTC</t>
+          <t>CRO/BTC</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>$0.02</t>
+          <t>$0.07</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>6.95%</t>
+          <t>2.19%</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$157</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$1,474</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>$31,229.01</t>
+          <t>$144,911.39</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5708,41 +5708,41 @@
         </is>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MATIC/USDT</t>
+          <t>BTT/USDT</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>$0.03</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>2.37%</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>$111</t>
+          <t>$115</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>$934</t>
+          <t>$27</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>$30,509.19</t>
+          <t>$144,515.68</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5760,32 +5760,32 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>EWT/USDT</t>
+          <t>CRU/USDT</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>$8.89</t>
+          <t>$8.51</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>8.02%</t>
+          <t>1.28%</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$53</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$136</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>$28,139.35</t>
+          <t>$135,213.38</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5794,41 +5794,41 @@
         </is>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>GIX/BTC</t>
+          <t>AKT/USDT</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>$2.91</t>
+          <t>$1.71</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>10.5%</t>
+          <t>0.49%</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$3,776</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$11,447</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>$24,086.15</t>
+          <t>$135,043.40</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5837,16 +5837,16 @@
         </is>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SRK/BTC</t>
+          <t>BTT/BTC</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -5856,22 +5856,22 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>7.53%</t>
+          <t>3.45%</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>$9,833</t>
+          <t>$789</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>$8,388</t>
+          <t>$4,022</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>$23,508.12</t>
+          <t>$125,505.37</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5880,16 +5880,16 @@
         </is>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>WINR/USDT</t>
+          <t>HOT/ETH</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5899,22 +5899,22 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2.16%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>$98</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>$70</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>$21,457.39</t>
+          <t>$121,897.24</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5923,41 +5923,41 @@
         </is>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>EUM/ETH</t>
+          <t>VET/USDT</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>$4.79</t>
+          <t>$0.03</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2.49%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>$781</t>
+          <t>$893</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>$2,705</t>
+          <t>$439</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>$19,547.07</t>
+          <t>$97,956.23</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5975,32 +5975,32 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>EUM/BTC</t>
+          <t>REV/USDT</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>$4.80</t>
+          <t>$0.01</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1.43%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>$596</t>
+          <t>$153</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>$1,382</t>
+          <t>$332</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>$18,710.94</t>
+          <t>$94,834.71</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -6018,32 +6018,32 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ATOM/BTC</t>
+          <t>BUP/BTC</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>$8.62</t>
+          <t>$0.58</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>0.62%</t>
+          <t>0.16%</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>$2,076</t>
+          <t>$375</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>$9,122</t>
+          <t>$275</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>$17,921.08</t>
+          <t>$93,473.98</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -6055,23 +6055,23 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ABT/ETH</t>
+          <t>FIC/USDT</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>$0.12</t>
+          <t>$0.29</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>10.23%</t>
+          <t>12.9%</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>$17,165.84</t>
+          <t>$89,884.76</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -6098,38 +6098,38 @@
         <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>HOT/ETH</t>
+          <t>BUY/USDT</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$0.19</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>5.66%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$130</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$113</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>$13,143.77</t>
+          <t>$89,585.76</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6138,26 +6138,26 @@
         </is>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>GIX/USDT</t>
+          <t>RMT/USDT</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>$3.16</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>12.31%</t>
+          <t>75.92%</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>$11,657.22</t>
+          <t>$87,647.79</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6190,32 +6190,32 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>EUM/USDT</t>
+          <t>STS/BTC</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>$4.91</t>
+          <t>$0.09</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>1.08%</t>
+          <t>0.39%</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>$422</t>
+          <t>$5</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>$1</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>$5,698.11</t>
+          <t>$87,656.76</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -6243,22 +6243,22 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>3.84%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>$28</t>
+          <t>$1,045</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>$106</t>
+          <t>$1,085</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>$5,311.28</t>
+          <t>$81,453.03</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6276,32 +6276,32 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>XEM/USDT</t>
+          <t>BSV/BTC</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>$0.23</t>
+          <t>$174.24</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>6.28%</t>
+          <t>1.37%</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$98,877</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$111,363</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>$3,842.14</t>
+          <t>$78,643.05</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6310,26 +6310,26 @@
         </is>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ABT/BTC</t>
+          <t>MATH/USDT</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>$0.12</t>
+          <t>$0.57</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>14.99%</t>
+          <t>4.45%</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -6344,7 +6344,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>$2,584.02</t>
+          <t>$78,543.44</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6353,16 +6353,16 @@
         </is>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>HOT/USDT</t>
+          <t>ELT/ETH</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6372,22 +6372,22 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>57.14%</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>$866</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>$112</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>$1,925.02</t>
+          <t>$69,916.99</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6396,26 +6396,26 @@
         </is>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TEP/USDT</t>
+          <t>XDB/USDT</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$0.02</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>7.69%</t>
+          <t>4.89%</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -6430,7 +6430,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>$7.00</t>
+          <t>$66,273.55</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6439,26 +6439,26 @@
         </is>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SG/USDT</t>
+          <t>ABT/BTC</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>$4.77</t>
+          <t>$0.12</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>17.94%</t>
+          <t>5.18%</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -6473,78 +6473,78 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>$2,548,664.43</t>
+          <t>$61,359.98</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H141" t="n">
         <v>1</v>
       </c>
       <c r="I141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SG/BTC</t>
+          <t>TMT/BTC</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>$5.61</t>
+          <t>$0.04</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>$2,361,776.15</t>
+          <t>$59,174.12</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>$KING/BTC</t>
+          <t>NDAU/USDT</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>$0.16</t>
+          <t>$14.99</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>17.19%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6554,73 +6554,73 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$2,010</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>$1,171,920.72</t>
+          <t>$54,580.71</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>$KING/USDT</t>
+          <t>BTM/BTC</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>$0.13</t>
+          <t>$0.07</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>10.58%</t>
+          <t>2.01%</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$197</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$21</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>$1,073,815.89</t>
+          <t>$53,079.12</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>APL/ETH</t>
+          <t>SRK/BTC</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6630,74 +6630,74 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>13.89%</t>
+          <t>2.62%</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$21,584</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$8,841</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>$545,981.35</t>
+          <t>$52,705.42</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MKR/ETH</t>
+          <t>ATOM/BTC</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>$1,488.60</t>
+          <t>$8.18</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>33.53%</t>
+          <t>2.11%</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$2</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$7,061</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>$537,264.02</t>
+          <t>$52,325.36</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -6706,17 +6706,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ONT/BTC</t>
+          <t>WTK/USDT</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>$0.65</t>
+          <t>$0.04</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>18.62%</t>
+          <t>47.94%</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6731,35 +6731,35 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>$486,181.81</t>
+          <t>$48,640.71</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H147" t="n">
         <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MKR/BTC</t>
+          <t>GNY/BTC</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>$1,482.76</t>
+          <t>$0.33</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>4.29%</t>
+          <t>24.91%</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6774,78 +6774,78 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>$474,562.40</t>
+          <t>$46,825.22</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>HMR/USDT</t>
+          <t>ETC/USDT</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>$0.16</t>
+          <t>$7.65</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>$132</t>
+          <t>$1,043</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>$8</t>
+          <t>$902</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>$407,476.66</t>
+          <t>$43,168.56</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>IOST/BTC</t>
+          <t>GIX/BTC</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>$0.02</t>
+          <t>$2.89</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>40.63%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6860,78 +6860,78 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>$396,374.41</t>
+          <t>$33,513.52</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H150" t="n">
         <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BSYS/USDT</t>
+          <t>SHAKE/ETH</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>$0.01</t>
+          <t>$334.36</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>41.31%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$18</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$17</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>$381,212.75</t>
+          <t>$32,826.53</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>HMR/BTC</t>
+          <t>TOP/USDT</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>$0.17</t>
+          <t>$0.24</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>26.62%</t>
+          <t>15.1%</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6946,12 +6946,12 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>$361,616.32</t>
+          <t>$26,616.95</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -6964,7 +6964,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ELT/USDT</t>
+          <t>WINR/USDT</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -6974,74 +6974,74 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve">30.35% </t>
+          <t>2.03%</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$28</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$84</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>$297,451.79</t>
+          <t>$25,954.78</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BMX/ETH</t>
+          <t>ATOM/USDT</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>$0.03</t>
+          <t>$8.18</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>7.99%</t>
+          <t>1.15%</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$1,664</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$3,981</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>$272,866.70</t>
+          <t>$24,229.36</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -7050,60 +7050,60 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ZIL/BTC</t>
+          <t>EUM/ETH</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>$0.09</t>
+          <t>$4.67</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>22.51%</t>
+          <t>3.12%</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$1,031</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$3,951</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>$202,895.44</t>
+          <t>$19,629.26</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>CRU/USDT</t>
+          <t>ULT/USDT</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>$8.97</t>
+          <t>$0.01</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>11.15%</t>
+          <t>5.58%</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7118,12 +7118,12 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>$166,027.60</t>
+          <t>$18,754.21</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H156" t="n">
@@ -7136,7 +7136,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ELT/ETH</t>
+          <t>ZNC/USDT</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>93.13%</t>
+          <t>9.21%</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7161,121 +7161,121 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>$109,393.47</t>
+          <t>$17,055.51</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H157" t="n">
         <v>1</v>
       </c>
       <c r="I157" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>DGB/BTC</t>
+          <t>EUM/BTC</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>$0.03</t>
+          <t>$4.72</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>16.8%</t>
+          <t>2.07%</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$306</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$1</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>$99,529.50</t>
+          <t>$16,581.48</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>STS/BTC</t>
+          <t>CUR/ETH</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>$0.12</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>34.23%</t>
+          <t>0.84%</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$42</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$99</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>$97,201.78</t>
+          <t>$15,693.88</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>GNY/BTC</t>
+          <t>EWT/USDT</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>$0.48</t>
+          <t>$8.61</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>17.47%</t>
+          <t>5.56%</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -7290,12 +7290,12 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>$70,079.37</t>
+          <t>$14,842.57</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H160" t="n">
@@ -7308,17 +7308,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>FIC/USDT</t>
+          <t>GIX/USDT</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>$0.19</t>
+          <t>$2.91</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>26.0%</t>
+          <t>5.67%</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -7333,12 +7333,12 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>$45,528.04</t>
+          <t>$14,375.27</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H161" t="n">
@@ -7351,17 +7351,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>TOP/USDT</t>
+          <t>MATIC/BTC</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>$0.24</t>
+          <t>$0.03</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>9.17%</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -7376,35 +7376,35 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>$25,615.85</t>
+          <t>$12,908.36</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H162" t="n">
         <v>1</v>
       </c>
       <c r="I162" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>CPC/USDT</t>
+          <t>SHR/BTC</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>$0.28</t>
+          <t>$0.02</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>4.12%</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -7419,35 +7419,35 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>$18,686.13</t>
+          <t>$12,849.92</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>XAG/ETH</t>
+          <t>ABT/ETH</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>$0.05</t>
+          <t>$0.12</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>68.43%</t>
+          <t>12.22%</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -7462,68 +7462,68 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>$17,936.73</t>
+          <t>$12,033.51</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H164" t="n">
         <v>1</v>
       </c>
       <c r="I164" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>BTCV/BTC</t>
+          <t>USDC/USDT</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>$68.04</t>
+          <t>$1.00</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>$245</t>
+          <t>$19,160</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>$654</t>
+          <t>$73,052</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>$15,871.97</t>
+          <t>$8,557.92</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ZNC/USDT</t>
+          <t>SRK/ETH</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>3.94%</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -7548,55 +7548,55 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>$13,386.98</t>
+          <t>$8,476.85</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>TFD/USDT</t>
+          <t>CORX/BTC</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>$0.01</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>8.02%</t>
+          <t>10.53%</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$2</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$758</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>$12,769.61</t>
+          <t>$6,020.62</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H167" t="n">
@@ -7609,60 +7609,60 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>EHRT/USDT</t>
+          <t>BTCV/BTC</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>$0.02</t>
+          <t>$70.07</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>5.69%</t>
+          <t>0.99%</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$444</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$471</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>$6,602.09</t>
+          <t>$5,959.98</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ALGO/BTC</t>
+          <t>EUM/USDT</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>$0.51</t>
+          <t>$4.76</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>9.99%</t>
+          <t>3.92%</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -7672,40 +7672,40 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$8</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>$6,100.21</t>
+          <t>$5,562.98</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>TRN/USDT</t>
+          <t>TFD/USDT</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>$0.02</t>
+          <t>$0.01</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>12.75%</t>
+          <t>15.9%</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>$5,687.66</t>
+          <t>$5,323.31</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H170" t="n">
@@ -7738,17 +7738,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>KAN/ETH</t>
+          <t>TRN/USDT</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$0.02</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>11.45%</t>
+          <t>15.83%</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -7763,78 +7763,78 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>$4,918.02</t>
+          <t>$4,840.90</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H171" t="n">
         <v>1</v>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>INJ/USDT</t>
+          <t>MATIC/USDT</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>$8.02</t>
+          <t>$0.03</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>12.77%</t>
+          <t>2.21%</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$6</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$611</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>$3,429.35</t>
+          <t>$3,667.29</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>TERN/USDT</t>
+          <t>STS/ETH</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>$0.01</t>
+          <t>$0.09</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>9.01%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -7849,12 +7849,12 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>$2,431.80</t>
+          <t>$3,471.93</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H173" t="n">
@@ -7867,17 +7867,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>XAG/BTC</t>
+          <t>YAP/BTC</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>$0.05</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>4.76%</t>
+          <t>45.45%</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -7892,240 +7892,240 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>$1,841.10</t>
+          <t>$3,022.46</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>GNT/BTC</t>
+          <t>XAG/USDT</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>$0.20</t>
+          <t>$0.05</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>10.49%</t>
+          <t>1.16%</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$201</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$536</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>$1,822.79</t>
+          <t>$2,845.78</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>CUR/ETH</t>
+          <t>HAI/BTC</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$0.04</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>1.12%</t>
+          <t>42.22%</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>$16,321</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>$36</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>$1,139.60</t>
+          <t>$2,554.81</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>BRC/USDT</t>
+          <t>BHD/USDT</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>$0.41</t>
+          <t>$1.80</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2.99%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>$294</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>$77</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>$774.01</t>
+          <t>$1,419.63</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>XAG/USDT</t>
+          <t>INJ/USDT</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>$0.05</t>
+          <t>$8.80</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>0.66%</t>
+          <t>10.74%</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>$101</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>$3,308</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>$680.64</t>
+          <t>$1,355.23</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SWAG/USDT</t>
+          <t>REPO/BTC</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>$0.06</t>
+          <t>$0.30</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>1.57%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>$104</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>$5</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>$173.39</t>
+          <t>$1,089.60</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>XSR/USDT</t>
+          <t>KAN/ETH</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -8135,7 +8135,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>67.79%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -8150,105 +8150,922 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>$133.79</t>
+          <t>$868.21</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H180" t="n">
         <v>1</v>
       </c>
       <c r="I180" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>LRC/USDT</t>
+          <t>PLA/ETH</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>$0.34</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>0.67%</t>
+          <t>13.76%</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$3,459</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>$53</t>
+          <t>$2,166</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>$83.06</t>
+          <t>$773.02</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>?</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
+          <t>LHD/BHD</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>23.37%</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>$611.37</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>ETE/ETH</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>$0.02</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>$571.77</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>ULT/BTC</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>$0.01</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>15.38%</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>$300.46</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>RFUEL/USDT</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>$0.08</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>$220.88</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>EHRT/USDT</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>$0.01</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>31.03%</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>$88.11</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>VEIL/USDT</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>$0.01</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>$83.34</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>EON/USDT</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>$0.06</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>41.22%</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>$59.43</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>XSR/BTC</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>96.04%</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>$29.18</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>LINA/BTC</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>$0.01</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>42.11%</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>$19.98</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ZEON/BMX</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>0.12%</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>$31</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>$14.57</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ITOC/USDT</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>$0.01</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>$14.21</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>ABX/BTC</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>13.33%</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>$50</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>$181</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>$9.97</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>ETE/BTC</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>$0.03</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>BSYS/USDT</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>31.67%</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>$99,268.88</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>BRT/ETH</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>66.61%</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>$5,097.34</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
           <t>CEL/ETH</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>$4.12</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>25.59%</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>$16.48</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>$5.97</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>14.26%</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>$3,087.12</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>XAG/BTC</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>$0.05</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>1.89%</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>$75</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>$12</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>$2,341.39</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>LINA/USDT</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>$0.01</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>20.02%</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>$2,260.50</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>SAND/BTC</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>$0.03</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>61.21%</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>$2,041.65</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>TERN/USDT</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>$0.01</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>7.25%</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>$1,884.53</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
